--- a/assets/lessons.xlsx
+++ b/assets/lessons.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Course name:</t>
   </si>
   <si>
-    <t xml:space="preserve">name…</t>
+    <t xml:space="preserve">Python do Zero</t>
   </si>
   <si>
     <t xml:space="preserve">Term number:</t>
@@ -533,7 +533,7 @@
   <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,7 +560,6 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="0"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
@@ -572,7 +571,6 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="0"/>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
